--- a/EA_Rechnung.xlsx
+++ b/EA_Rechnung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Documents\GitHub\RC-Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A22127-5F41-4A06-9B08-FB5BEDB428C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D46E0A9-4626-4E48-B2B1-99C6981B1191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4145CA07-622A-467E-AEE4-EB2649939E77}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Ea-Rechnung</t>
   </si>
@@ -77,6 +77,30 @@
   </si>
   <si>
     <t>Raspberry PI 4 4GB</t>
+  </si>
+  <si>
+    <t>Summe:</t>
+  </si>
+  <si>
+    <t>Mert Gürel</t>
+  </si>
+  <si>
+    <t>Summe Einnahmen Ausgaben:</t>
+  </si>
+  <si>
+    <t>Rückzahlung PI Pico (Bar)</t>
+  </si>
+  <si>
+    <t>Amazon.de</t>
+  </si>
+  <si>
+    <t>Ultraschallsensoren</t>
+  </si>
+  <si>
+    <t>TRXShop.eu</t>
+  </si>
+  <si>
+    <t>Differntial</t>
   </si>
 </sst>
 </file>
@@ -124,15 +148,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -140,22 +170,170 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -180,16 +358,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
-          <xdr:row>13</xdr:row>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>533400</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>174567</xdr:rowOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -199,7 +377,172 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{354A5202-3F47-4AEF-882C-AF475C4A0EA5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>723900</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="Object 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>952500</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Object 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>175484</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1030" name="Object 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B28BB58-881F-48D8-9A03-9F764C0DC79D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -248,94 +591,26 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>726722</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1774477</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1028" name="Object 4" hidden="1">
+            <xdr:cNvPr id="1031" name="Object 7" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1028"/>
+                  <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB963740-5C53-4721-8620-E551C2EF81E2}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
-            </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>2823</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1029" name="Object 5" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1029"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F95ADAFA-A52A-4FC3-AF0B-B0AFFBF786C0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C29789B7-529A-4B07-9BA1-A9067F6F5B7E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -680,122 +955,403 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CB7E9A-8A99-4BA8-BB9E-BD49A733C663}">
-  <dimension ref="A2:E16"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="3" width="23" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="2" width="11.42578125" style="1"/>
+    <col min="3" max="4" width="23" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="26.85546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:6" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="7"/>
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="4">
+        <f>SUM(E7:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D15" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F15" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="14">
         <v>44427</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E16" s="7">
         <v>6.11</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="14">
         <v>44452</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E17" s="7">
         <v>62.35</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="14">
         <v>44424</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E18" s="7">
         <v>72.09</v>
       </c>
-    </row>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="14">
+        <v>44424</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="7">
+        <v>-3.45</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="14">
+        <v>44424</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="7">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="14">
+        <v>44203</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="7">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="4">
+        <f>SUM(E16:E33)</f>
+        <v>217.70000000000005</v>
+      </c>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="4">
+        <f>E11-E34</f>
+        <v>-217.70000000000005</v>
+      </c>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="15"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="17"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A11:D11"/>
+  <mergeCells count="4">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="C36:D36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -808,15 +1364,15 @@
           <objectPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
@@ -833,15 +1389,15 @@
           <objectPr defaultSize="0" autoPict="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>16</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>723900</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -858,16 +1414,16 @@
           <objectPr defaultSize="0" autoPict="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:colOff>952500</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -877,6 +1433,56 @@
         <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1029" r:id="rId8"/>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1030" r:id="rId10">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1030" r:id="rId10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1031" r:id="rId12">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1771650</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1031" r:id="rId12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
--- a/EA_Rechnung.xlsx
+++ b/EA_Rechnung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Documents\GitHub\RC-Car\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Schule\CPE\2. Klasse\Projekt\RC-Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D46E0A9-4626-4E48-B2B1-99C6981B1191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53408A0-3449-40AB-BE97-F7C72C89E4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4145CA07-622A-467E-AEE4-EB2649939E77}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{4145CA07-622A-467E-AEE4-EB2649939E77}"/>
   </bookViews>
   <sheets>
     <sheet name="EA_Rechnung_2021" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Ea-Rechnung</t>
   </si>
@@ -101,6 +101,24 @@
   </si>
   <si>
     <t>Differntial</t>
+  </si>
+  <si>
+    <t>Schraubenking.at</t>
+  </si>
+  <si>
+    <t>Schrauben, Stifte, Muttern</t>
+  </si>
+  <si>
+    <t>Guthaben Schraubenking.at</t>
+  </si>
+  <si>
+    <t>Rückzahlung</t>
+  </si>
+  <si>
+    <t>Rückzahlung:</t>
+  </si>
+  <si>
+    <t>Felix</t>
   </si>
 </sst>
 </file>
@@ -148,7 +166,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,8 +179,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -293,28 +317,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -334,6 +372,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -358,16 +415,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>5</xdr:col>
+          <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
+          <xdr:col>6</xdr:col>
           <xdr:colOff>533400</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>175260</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -413,16 +470,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>5</xdr:col>
+          <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>16</xdr:row>
+          <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
+          <xdr:col>6</xdr:col>
           <xdr:colOff>723900</xdr:colOff>
-          <xdr:row>17</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>1</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -468,16 +525,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>5</xdr:col>
+          <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
+          <xdr:col>6</xdr:col>
           <xdr:colOff>952500</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>181707</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -523,16 +580,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>5</xdr:col>
+          <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>19</xdr:row>
+          <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>175484</xdr:rowOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>556260</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>175260</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -542,7 +599,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B28BB58-881F-48D8-9A03-9F764C0DC79D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -563,23 +620,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -591,16 +635,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>1</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>1774477</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>1775460</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>1173</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -610,7 +654,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C29789B7-529A-4B07-9BA1-A9067F6F5B7E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -631,23 +675,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -955,403 +986,487 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CB7E9A-8A99-4BA8-BB9E-BD49A733C663}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="1"/>
-    <col min="3" max="4" width="23" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="1"/>
-    <col min="6" max="6" width="26.85546875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="2" width="11.44140625" style="1"/>
+    <col min="3" max="3" width="23" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="1"/>
+    <col min="6" max="6" width="12.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.88671875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:6" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="7"/>
-      <c r="B2" s="18" t="s">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:7" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="4"/>
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="9" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="11" t="s">
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="12" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="3" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="21">
+        <v>90</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="21">
+        <f>F35</f>
+        <v>221.47000000000006</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="4">
-        <f>SUM(E7:E10)</f>
+      <c r="E12" s="22">
+        <f>SUM(E7:E11)</f>
+        <v>311.47000000000003</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="10">
+        <v>44427</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="21">
+        <v>6.11</v>
+      </c>
+      <c r="F17" s="21">
+        <v>6.11</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="10">
+        <v>44452</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="21">
+        <v>62.35</v>
+      </c>
+      <c r="F18" s="21">
+        <v>62.35</v>
+      </c>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="10">
+        <v>44424</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="21">
+        <v>72.09</v>
+      </c>
+      <c r="F19" s="21">
+        <v>72.09</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="10">
+        <v>44424</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="21">
+        <v>-3.45</v>
+      </c>
+      <c r="F20" s="21">
+        <v>-3.45</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="10">
+        <v>44424</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="21">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="F21" s="21">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="10">
+        <v>44203</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="21">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="F22" s="21">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="21">
+        <v>93.77</v>
+      </c>
+      <c r="F23" s="21">
+        <v>3.77</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="22">
+        <f>SUM(E17:E34)</f>
+        <v>311.47000000000003</v>
+      </c>
+      <c r="F35" s="26">
+        <f>SUM(F17:F34)</f>
+        <v>221.47000000000006</v>
+      </c>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="20"/>
+      <c r="E37" s="22">
+        <f>E12-E35</f>
         <v>0</v>
       </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="14">
-        <v>44427</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="7">
-        <v>6.11</v>
-      </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="14">
-        <v>44452</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="7">
-        <v>62.35</v>
-      </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="14">
-        <v>44424</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="7">
-        <v>72.09</v>
-      </c>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="14">
-        <v>44424</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="7">
-        <v>-3.45</v>
-      </c>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="14">
-        <v>44424</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="7">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="14">
-        <v>44203</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="7">
-        <v>40.799999999999997</v>
-      </c>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="4">
-        <f>SUM(E16:E33)</f>
-        <v>217.70000000000005</v>
-      </c>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="7"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="4">
-        <f>E11-E34</f>
-        <v>-217.70000000000005</v>
-      </c>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="15"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="17"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="11"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="13"/>
+    </row>
+    <row r="39" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B2:G2"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="C37:D37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1364,16 +1479,16 @@
           <objectPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
+                <xdr:col>6</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>16</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
+                <xdr:col>6</xdr:col>
                 <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>175260</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1389,15 +1504,15 @@
           <objectPr defaultSize="0" autoPict="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
+                <xdr:col>6</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
+                <xdr:col>6</xdr:col>
                 <xdr:colOff>723900</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>18</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -1414,15 +1529,15 @@
           <objectPr defaultSize="0" autoPict="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
+                <xdr:col>6</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>18</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
+                <xdr:col>6</xdr:col>
                 <xdr:colOff>952500</xdr:colOff>
-                <xdr:row>18</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -1439,16 +1554,16 @@
           <objectPr defaultSize="0" autoPict="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
+                <xdr:col>6</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>20</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>556260</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>175260</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1464,16 +1579,16 @@
           <objectPr defaultSize="0" autoPict="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
+                <xdr:col>6</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>182880</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1771650</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1775460</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>182880</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>

--- a/EA_Rechnung.xlsx
+++ b/EA_Rechnung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Schule\CPE\2. Klasse\Projekt\RC-Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53408A0-3449-40AB-BE97-F7C72C89E4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581DA11E-0AA2-4696-BE62-ECA0CECBC2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{4145CA07-622A-467E-AEE4-EB2649939E77}"/>
   </bookViews>
@@ -363,6 +363,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -384,13 +391,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -479,7 +479,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>723900</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>1</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -533,8 +533,8 @@
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>952500</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>181707</xdr:rowOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -643,8 +643,8 @@
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>1775460</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>1173</xdr:rowOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -989,7 +989,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1006,14 +1006,14 @@
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:7" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4"/>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -1026,12 +1026,12 @@
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
       <c r="F4" s="6"/>
       <c r="G4" s="3"/>
     </row>
@@ -1070,10 +1070,10 @@
       <c r="D7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="14">
         <v>90</v>
       </c>
-      <c r="F7" s="21"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1085,19 +1085,19 @@
       <c r="D8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="14">
         <f>F35</f>
         <v>221.47000000000006</v>
       </c>
-      <c r="F8" s="21"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1105,8 +1105,8 @@
       <c r="B10" s="5"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1114,8 +1114,8 @@
       <c r="B11" s="5"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1125,11 +1125,11 @@
       <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="15">
         <f>SUM(E7:E11)</f>
         <v>311.47000000000003</v>
       </c>
-      <c r="F12" s="24"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1143,12 +1143,12 @@
     </row>
     <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="6"/>
       <c r="G14" s="3"/>
     </row>
@@ -1175,7 +1175,7 @@
       <c r="E16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="20" t="s">
         <v>26</v>
       </c>
       <c r="G16" s="9" t="s">
@@ -1193,10 +1193,10 @@
       <c r="D17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="14">
         <v>6.11</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="14">
         <v>6.11</v>
       </c>
       <c r="G17" s="3"/>
@@ -1212,10 +1212,10 @@
       <c r="D18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="14">
         <v>62.35</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="14">
         <v>62.35</v>
       </c>
       <c r="G18" s="3"/>
@@ -1231,10 +1231,10 @@
       <c r="D19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="14">
         <v>72.09</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="14">
         <v>72.09</v>
       </c>
       <c r="G19" s="3"/>
@@ -1250,10 +1250,10 @@
       <c r="D20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="14">
         <v>-3.45</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="14">
         <v>-3.45</v>
       </c>
       <c r="G20" s="3"/>
@@ -1269,10 +1269,10 @@
       <c r="D21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="14">
         <v>39.799999999999997</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="14">
         <v>39.799999999999997</v>
       </c>
       <c r="G21" s="3"/>
@@ -1288,10 +1288,10 @@
       <c r="D22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="14">
         <v>40.799999999999997</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="14">
         <v>40.799999999999997</v>
       </c>
       <c r="G22" s="3"/>
@@ -1299,16 +1299,16 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="14">
         <v>93.77</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="14">
         <v>3.77</v>
       </c>
       <c r="G23" s="3"/>
@@ -1318,8 +1318,8 @@
       <c r="B24" s="5"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1327,8 +1327,8 @@
       <c r="B25" s="5"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1336,8 +1336,8 @@
       <c r="B26" s="5"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1345,8 +1345,8 @@
       <c r="B27" s="5"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1354,8 +1354,8 @@
       <c r="B28" s="5"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1363,8 +1363,8 @@
       <c r="B29" s="5"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1372,8 +1372,8 @@
       <c r="B30" s="5"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1381,8 +1381,8 @@
       <c r="B31" s="5"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1390,8 +1390,8 @@
       <c r="B32" s="5"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1399,8 +1399,8 @@
       <c r="B33" s="5"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1408,8 +1408,8 @@
       <c r="B34" s="5"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="25"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="18"/>
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1419,11 +1419,11 @@
       <c r="D35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="15">
         <f>SUM(E17:E34)</f>
         <v>311.47000000000003</v>
       </c>
-      <c r="F35" s="26">
+      <c r="F35" s="19">
         <f>SUM(F17:F34)</f>
         <v>221.47000000000006</v>
       </c>
@@ -1434,22 +1434,22 @@
       <c r="B36" s="5"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="22">
+      <c r="D37" s="27"/>
+      <c r="E37" s="15">
         <f>E12-E35</f>
         <v>0</v>
       </c>
-      <c r="F37" s="24"/>
+      <c r="F37" s="17"/>
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/EA_Rechnung.xlsx
+++ b/EA_Rechnung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Schule\CPE\2. Klasse\Projekt\RC-Car\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Documents\GitHub\RC-Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581DA11E-0AA2-4696-BE62-ECA0CECBC2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC7C98E-9E3C-4C5C-81F7-0E34C6BA9625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{4145CA07-622A-467E-AEE4-EB2649939E77}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4145CA07-622A-467E-AEE4-EB2649939E77}"/>
   </bookViews>
   <sheets>
     <sheet name="EA_Rechnung_2021" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>533400</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>175260</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -587,9 +587,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>556260</xdr:colOff>
+          <xdr:colOff>552450</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>175260</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -638,13 +638,13 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>182880</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>1775460</xdr:colOff>
+          <xdr:colOff>1771650</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>182880</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -988,23 +988,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CB7E9A-8A99-4BA8-BB9E-BD49A733C663}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.44140625" style="1"/>
+    <col min="1" max="2" width="11.42578125" style="1"/>
     <col min="3" max="3" width="23" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="1"/>
-    <col min="6" max="6" width="12.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.88671875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.44140625" style="1"/>
+    <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:7" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:7" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4"/>
       <c r="B2" s="21" t="s">
         <v>0</v>
@@ -1015,7 +1015,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
@@ -1024,7 +1024,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="24" t="s">
         <v>2</v>
@@ -1035,7 +1035,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
@@ -1044,7 +1044,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="7" t="s">
         <v>1</v>
@@ -1061,9 +1061,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
+      <c r="B7" s="10">
+        <v>44627</v>
+      </c>
       <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
@@ -1076,7 +1078,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="4" t="s">
@@ -1092,7 +1094,7 @@
       <c r="F8" s="14"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="D9" s="4"/>
@@ -1100,7 +1102,7 @@
       <c r="F9" s="14"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="4"/>
@@ -1109,7 +1111,7 @@
       <c r="F10" s="14"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="4"/>
@@ -1118,7 +1120,7 @@
       <c r="F11" s="14"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="4"/>
@@ -1132,7 +1134,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="4"/>
@@ -1141,7 +1143,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="24" t="s">
         <v>4</v>
@@ -1152,7 +1154,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="4"/>
@@ -1161,7 +1163,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="7" t="s">
         <v>1</v>
@@ -1182,7 +1184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="10">
         <v>44427</v>
@@ -1201,7 +1203,7 @@
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="10">
         <v>44452</v>
@@ -1220,7 +1222,7 @@
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="10">
         <v>44424</v>
@@ -1239,7 +1241,7 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="10">
         <v>44424</v>
@@ -1258,7 +1260,7 @@
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="10">
         <v>44424</v>
@@ -1277,7 +1279,7 @@
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="10">
         <v>44203</v>
@@ -1296,9 +1298,11 @@
       </c>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
+      <c r="B23" s="10">
+        <v>44628</v>
+      </c>
       <c r="C23" s="16" t="s">
         <v>22</v>
       </c>
@@ -1313,7 +1317,7 @@
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="4"/>
@@ -1322,7 +1326,7 @@
       <c r="F24" s="14"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="4"/>
@@ -1331,7 +1335,7 @@
       <c r="F25" s="14"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="4"/>
@@ -1340,7 +1344,7 @@
       <c r="F26" s="14"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="4"/>
@@ -1349,7 +1353,7 @@
       <c r="F27" s="14"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="4"/>
@@ -1358,7 +1362,7 @@
       <c r="F28" s="14"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="4"/>
@@ -1367,7 +1371,7 @@
       <c r="F29" s="14"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="4"/>
@@ -1376,7 +1380,7 @@
       <c r="F30" s="14"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="4"/>
@@ -1385,7 +1389,7 @@
       <c r="F31" s="14"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="4"/>
@@ -1394,7 +1398,7 @@
       <c r="F32" s="14"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="4"/>
@@ -1403,7 +1407,7 @@
       <c r="F33" s="14"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="4"/>
@@ -1412,7 +1416,7 @@
       <c r="F34" s="18"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="4"/>
@@ -1429,7 +1433,7 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="4"/>
@@ -1438,7 +1442,7 @@
       <c r="F36" s="14"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="26" t="s">
@@ -1452,7 +1456,7 @@
       <c r="F37" s="17"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="11"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
@@ -1460,7 +1464,7 @@
       <c r="F38" s="12"/>
       <c r="G38" s="13"/>
     </row>
-    <row r="39" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:G2"/>
@@ -1488,7 +1492,7 @@
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>533400</xdr:colOff>
                 <xdr:row>16</xdr:row>
-                <xdr:rowOff>175260</xdr:rowOff>
+                <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1561,9 +1565,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>556260</xdr:colOff>
+                <xdr:colOff>552450</xdr:colOff>
                 <xdr:row>20</xdr:row>
-                <xdr:rowOff>175260</xdr:rowOff>
+                <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1582,13 +1586,13 @@
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>20</xdr:row>
-                <xdr:rowOff>182880</xdr:rowOff>
+                <xdr:rowOff>180975</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>1775460</xdr:colOff>
+                <xdr:colOff>1771650</xdr:colOff>
                 <xdr:row>21</xdr:row>
-                <xdr:rowOff>182880</xdr:rowOff>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>

--- a/EA_Rechnung.xlsx
+++ b/EA_Rechnung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Documents\GitHub\RC-Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC7C98E-9E3C-4C5C-81F7-0E34C6BA9625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99039FA9-AB41-4B6D-ABAD-7F45BEE57F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4145CA07-622A-467E-AEE4-EB2649939E77}"/>
   </bookViews>
@@ -686,6 +686,74 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>457200</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>176349</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1032" name="Object 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1032"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E65D1A46-4782-4747-8C8E-9C8F86A4057C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -989,7 +1057,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="I25" sqref="I25:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1602,6 +1670,31 @@
         <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1031" r:id="rId12"/>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1032" r:id="rId14">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1032" r:id="rId14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
--- a/EA_Rechnung.xlsx
+++ b/EA_Rechnung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\Documents\GitHub\RC-Car\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Schule\CPE\2. Klasse\Projekt\RC-Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99039FA9-AB41-4B6D-ABAD-7F45BEE57F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4613A0B-3FCD-4A79-8152-633A8779B1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4145CA07-622A-467E-AEE4-EB2649939E77}"/>
+    <workbookView minimized="1" xWindow="3456" yWindow="3456" windowWidth="34560" windowHeight="18600" xr2:uid="{4145CA07-622A-467E-AEE4-EB2649939E77}"/>
   </bookViews>
   <sheets>
     <sheet name="EA_Rechnung_2021" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>Ea-Rechnung</t>
   </si>
@@ -118,7 +118,34 @@
     <t>Rückzahlung:</t>
   </si>
   <si>
-    <t>Felix</t>
+    <t>Felix Sandri</t>
+  </si>
+  <si>
+    <t>Kfz Weiss</t>
+  </si>
+  <si>
+    <t>SDP-Automobile</t>
+  </si>
+  <si>
+    <t>Projektsponsoring</t>
+  </si>
+  <si>
+    <t>Mario's Autoteile</t>
+  </si>
+  <si>
+    <t>Pagro Diskont</t>
+  </si>
+  <si>
+    <t>Etiketten</t>
+  </si>
+  <si>
+    <t>Bauhaus Depot GMBH</t>
+  </si>
+  <si>
+    <t>Organizer Schrauben</t>
+  </si>
+  <si>
+    <t>Hartfaserplatte u. Senker</t>
   </si>
 </sst>
 </file>
@@ -417,14 +444,14 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>16</xdr:row>
+          <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>533400</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>175260</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -472,13 +499,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>723900</xdr:colOff>
-          <xdr:row>18</xdr:row>
+          <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -527,13 +554,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>18</xdr:row>
+          <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>952500</xdr:colOff>
-          <xdr:row>19</xdr:row>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -582,14 +609,14 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>20</xdr:row>
+          <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:colOff>556260</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>175260</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -637,14 +664,14 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>1771650</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:colOff>1775460</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>1905</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -692,14 +719,14 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>22</xdr:row>
+          <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>176349</xdr:rowOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>1905</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -709,7 +736,402 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E65D1A46-4782-4747-8C8E-9C8F86A4057C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>4615</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1033" name="Object 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1033"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{697581BD-7399-4973-8323-E1C60F939352}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>163459</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1034" name="Object 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1034"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF2E57BA-C997-4CB3-8084-7180D9FB7F48}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>291395</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>166688</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Object 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF0378D5-3AFB-40A2-ABAC-E42C98B10645}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>295275</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>176381</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1036" name="Object 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1036"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2F8E7EB-A82C-455F-BF56-7D2BEF33CBF7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>165453</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>166688</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1037" name="Object 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1037"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EDA75AB-368F-46B5-9006-81550D6F8CF2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>242887</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>1190</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1038" name="Object 14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1038"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4474533F-47D2-4701-9C45-12F70FC76762}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1054,25 +1476,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CB7E9A-8A99-4BA8-BB9E-BD49A733C663}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25:J25"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="1"/>
+    <col min="1" max="2" width="11.44140625" style="1"/>
     <col min="3" max="3" width="23" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="1"/>
-    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="24.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="1"/>
+    <col min="6" max="6" width="12.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.88671875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:7" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4"/>
       <c r="B2" s="21" t="s">
         <v>0</v>
@@ -1083,7 +1505,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
@@ -1092,7 +1514,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="24" t="s">
         <v>2</v>
@@ -1103,7 +1525,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
@@ -1112,7 +1534,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="7" t="s">
         <v>1</v>
@@ -1129,7 +1551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="10">
         <v>44627</v>
@@ -1146,7 +1568,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="4" t="s">
@@ -1156,73 +1578,90 @@
         <v>25</v>
       </c>
       <c r="E8" s="14">
-        <f>F35</f>
-        <v>221.47000000000006</v>
+        <f>F37</f>
+        <v>263.42000000000007</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="14"/>
+      <c r="C9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="14">
+        <v>300</v>
+      </c>
       <c r="F9" s="14"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="14"/>
+      <c r="C10" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="14">
+        <v>500</v>
+      </c>
       <c r="F10" s="14"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="14"/>
+      <c r="C11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="14">
+        <v>500</v>
+      </c>
       <c r="F11" s="14"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="15">
-        <f>SUM(E7:E11)</f>
-        <v>311.47000000000003</v>
-      </c>
-      <c r="F12" s="17"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
-      <c r="B14" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="6"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="15">
+        <f>SUM(E7:E13)</f>
+        <v>1653.42</v>
+      </c>
+      <c r="F14" s="17"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="4"/>
@@ -1231,206 +1670,238 @@
       <c r="F15" s="4"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D18" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E18" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F18" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G18" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="10">
-        <v>44427</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="14">
-        <v>6.11</v>
-      </c>
-      <c r="F17" s="14">
-        <v>6.11</v>
-      </c>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="10">
-        <v>44452</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="14">
-        <v>62.35</v>
-      </c>
-      <c r="F18" s="14">
-        <v>62.35</v>
-      </c>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="10">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E19" s="14">
-        <v>72.09</v>
+        <v>6.11</v>
       </c>
       <c r="F19" s="14">
-        <v>72.09</v>
+        <v>6.11</v>
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="10">
-        <v>44424</v>
+        <v>44452</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E20" s="14">
-        <v>-3.45</v>
+        <v>62.35</v>
       </c>
       <c r="F20" s="14">
-        <v>-3.45</v>
+        <v>62.35</v>
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="10">
         <v>44424</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E21" s="14">
-        <v>39.799999999999997</v>
+        <v>72.09</v>
       </c>
       <c r="F21" s="14">
-        <v>39.799999999999997</v>
+        <v>72.09</v>
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="10">
-        <v>44203</v>
+        <v>44424</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E22" s="14">
-        <v>40.799999999999997</v>
+        <v>-3.45</v>
       </c>
       <c r="F22" s="14">
-        <v>40.799999999999997</v>
+        <v>-3.45</v>
       </c>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="10">
+        <v>44424</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="14">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="F23" s="14">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="10">
+        <v>44203</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="14">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="F24" s="14">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="10">
         <v>44628</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C25" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E25" s="14">
         <v>93.77</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F25" s="14">
         <v>3.77</v>
       </c>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="B26" s="10">
+        <v>44655</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="14">
+        <v>3.85</v>
+      </c>
+      <c r="F26" s="14">
+        <v>3.85</v>
+      </c>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
+      <c r="B27" s="10">
+        <v>44655</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="14">
+        <v>13.9</v>
+      </c>
+      <c r="F27" s="14">
+        <v>13.9</v>
+      </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
+      <c r="B28" s="10">
+        <v>44655</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="14">
+        <v>24.2</v>
+      </c>
+      <c r="F28" s="14">
+        <v>24.2</v>
+      </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="4"/>
@@ -1439,7 +1910,7 @@
       <c r="F29" s="14"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="4"/>
@@ -1448,7 +1919,7 @@
       <c r="F30" s="14"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="4"/>
@@ -1457,7 +1928,7 @@
       <c r="F31" s="14"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="4"/>
@@ -1466,7 +1937,7 @@
       <c r="F32" s="14"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="4"/>
@@ -1475,70 +1946,88 @@
       <c r="F33" s="14"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="14"/>
-      <c r="F34" s="18"/>
+      <c r="F34" s="14"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="4"/>
-      <c r="D35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="15">
-        <f>SUM(E17:E34)</f>
-        <v>311.47000000000003</v>
-      </c>
-      <c r="F35" s="19">
-        <f>SUM(F17:F34)</f>
-        <v>221.47000000000006</v>
-      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="F36" s="18"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="4"/>
+      <c r="D37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="15">
+        <f>SUM(E19:E36)</f>
+        <v>353.42</v>
+      </c>
+      <c r="F37" s="19">
+        <f>SUM(F19:F36)</f>
+        <v>263.42000000000007</v>
+      </c>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="27"/>
-      <c r="E37" s="15">
-        <f>E12-E35</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="11"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="13"/>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="15">
+        <f>E14-E37</f>
+        <v>1300</v>
+      </c>
+      <c r="F39" s="17"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="11"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="13"/>
+    </row>
+    <row r="41" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="C39:D39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1553,14 +2042,14 @@
               <from>
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
+                <xdr:row>18</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>175260</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1578,13 +2067,13 @@
               <from>
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>19</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>723900</xdr:colOff>
-                <xdr:row>18</xdr:row>
+                <xdr:row>20</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -1603,13 +2092,13 @@
               <from>
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
+                <xdr:row>20</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>952500</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -1628,14 +2117,14 @@
               <from>
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>20</xdr:row>
+                <xdr:row>22</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:colOff>556260</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>175260</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1653,14 +2142,14 @@
               <from>
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>182880</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>1771650</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:colOff>1775460</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>182880</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1678,14 +2167,14 @@
               <from>
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
+                <xdr:row>24</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>182880</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1695,6 +2184,156 @@
         <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1032" r:id="rId14"/>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1033" r:id="rId16">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>7620</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1033" r:id="rId16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1034" r:id="rId18">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>289560</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>160020</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1034" r:id="rId18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1035" r:id="rId20">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>289560</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>167640</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1035" r:id="rId20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1036" r:id="rId22">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId23">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>297180</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>175260</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1036" r:id="rId22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1037" r:id="rId24">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId25">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>167640</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>167640</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1037" r:id="rId24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1038" r:id="rId26">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>243840</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1038" r:id="rId26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
--- a/EA_Rechnung.xlsx
+++ b/EA_Rechnung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Schule\CPE\2. Klasse\Projekt\RC-Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4613A0B-3FCD-4A79-8152-633A8779B1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178D816E-B946-4076-9C1C-15003DD9C784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3456" yWindow="3456" windowWidth="34560" windowHeight="18600" xr2:uid="{4145CA07-622A-467E-AEE4-EB2649939E77}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{4145CA07-622A-467E-AEE4-EB2649939E77}"/>
   </bookViews>
   <sheets>
     <sheet name="EA_Rechnung_2021" sheetId="1" r:id="rId1"/>
@@ -781,7 +781,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>4615</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -791,7 +791,7 @@
                   <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{697581BD-7399-4973-8323-E1C60F939352}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -812,23 +812,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -847,9 +834,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>163459</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -859,7 +846,7 @@
                   <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF2E57BA-C997-4CB3-8084-7180D9FB7F48}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -880,23 +867,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -915,9 +889,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>291395</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>166688</xdr:rowOff>
+          <xdr:rowOff>167640</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -927,7 +901,7 @@
                   <a14:compatExt spid="_x0000_s1035"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF0378D5-3AFB-40A2-ABAC-E42C98B10645}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -948,23 +922,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -983,9 +944,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>295275</xdr:colOff>
+          <xdr:colOff>297180</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>176381</xdr:rowOff>
+          <xdr:rowOff>175260</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -995,7 +956,7 @@
                   <a14:compatExt spid="_x0000_s1036"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2F8E7EB-A82C-455F-BF56-7D2BEF33CBF7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1016,23 +977,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1051,9 +999,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>165453</xdr:colOff>
+          <xdr:colOff>167640</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>166688</xdr:rowOff>
+          <xdr:rowOff>167640</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1063,7 +1011,7 @@
                   <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EDA75AB-368F-46B5-9006-81550D6F8CF2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1084,23 +1032,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1119,9 +1054,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>242887</xdr:colOff>
+          <xdr:colOff>243840</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>1190</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1131,7 +1066,7 @@
                   <a14:compatExt spid="_x0000_s1038"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4474533F-47D2-4701-9C45-12F70FC76762}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1152,23 +1087,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1479,7 +1401,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1601,7 +1523,9 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
+      <c r="B10" s="10">
+        <v>44663</v>
+      </c>
       <c r="C10" s="16" t="s">
         <v>29</v>
       </c>

--- a/EA_Rechnung.xlsx
+++ b/EA_Rechnung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Schule\CPE\2. Klasse\Projekt\RC-Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178D816E-B946-4076-9C1C-15003DD9C784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81586490-D4B2-4BD3-82AB-6801069A3334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{4145CA07-622A-467E-AEE4-EB2649939E77}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>Ea-Rechnung</t>
   </si>
@@ -146,6 +146,24 @@
   </si>
   <si>
     <t>Hartfaserplatte u. Senker</t>
+  </si>
+  <si>
+    <t>Gewindeeinsätze, Standoffs</t>
+  </si>
+  <si>
+    <t>SMDs, Arduino Nano Connect</t>
+  </si>
+  <si>
+    <t>Aliexpress.com</t>
+  </si>
+  <si>
+    <t>Pin Header</t>
+  </si>
+  <si>
+    <t>MF52 PTCs</t>
+  </si>
+  <si>
+    <t>Rückzahlung Arduino Nano</t>
   </si>
 </sst>
 </file>
@@ -1091,6 +1109,278 @@
               <a:headEnd/>
               <a:tailEnd/>
             </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>513646</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>166688</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1039" name="Object 15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1039"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E714B8C0-6EEA-4654-B8E4-93D53828C2B7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>717843</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>4763</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1040" name="Object 16" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1040"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05761015-36A7-4603-9392-0AF75D01737D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>376238</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>7144</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1044" name="Object 20" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1044"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{823972BE-1904-4F6F-8B1D-F08B2ADD345B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>361950</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1045" name="Object 21" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1045"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5202CA5B-24DC-4BA0-B893-4FE1D5C2D693}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1398,17 +1688,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CB7E9A-8A99-4BA8-BB9E-BD49A733C663}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="11.44140625" style="1"/>
     <col min="3" max="3" width="23" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" style="1"/>
     <col min="6" max="6" width="12.109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="26.88671875" style="1" customWidth="1"/>
@@ -1500,7 +1790,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="14">
-        <f>F37</f>
+        <f>F38</f>
         <v>263.42000000000007</v>
       </c>
       <c r="F8" s="14"/>
@@ -1827,46 +2117,86 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="14"/>
+      <c r="B29" s="10">
+        <v>44672</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="14">
+        <v>56.45</v>
+      </c>
       <c r="F29" s="14"/>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="14"/>
+      <c r="B30" s="10">
+        <v>44670</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="14">
+        <v>82.39</v>
+      </c>
       <c r="F30" s="14"/>
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="14"/>
+      <c r="B31" s="10">
+        <v>44670</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="14">
+        <v>-30.95</v>
+      </c>
       <c r="F31" s="14"/>
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="14"/>
+      <c r="B32" s="10">
+        <v>44670</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="14">
+        <v>1.07</v>
+      </c>
       <c r="F32" s="14"/>
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="14"/>
+      <c r="B33" s="10">
+        <v>44670</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="14">
+        <v>2.85</v>
+      </c>
       <c r="F33" s="14"/>
       <c r="G33" s="3"/>
     </row>
@@ -1888,70 +2218,79 @@
       <c r="F35" s="14"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="14"/>
-      <c r="F36" s="18"/>
+      <c r="F36" s="14"/>
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="4"/>
-      <c r="D37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="15">
-        <f>SUM(E19:E36)</f>
-        <v>353.42</v>
-      </c>
-      <c r="F37" s="19">
-        <f>SUM(F19:F36)</f>
-        <v>263.42000000000007</v>
-      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="18"/>
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
+      <c r="D38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="15">
+        <f>SUM(E19:E37)</f>
+        <v>465.23</v>
+      </c>
+      <c r="F38" s="19">
+        <f>SUM(F19:F37)</f>
+        <v>263.42000000000007</v>
+      </c>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="27"/>
-      <c r="E39" s="15">
-        <f>E14-E37</f>
-        <v>1300</v>
-      </c>
-      <c r="F39" s="17"/>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="11"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="13"/>
-    </row>
-    <row r="41" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="15">
+        <f>E14-E38</f>
+        <v>1188.19</v>
+      </c>
+      <c r="F40" s="17"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="11"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="13"/>
+    </row>
+    <row r="42" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B16:E16"/>
-    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2258,6 +2597,106 @@
         <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1038" r:id="rId26"/>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1039" r:id="rId28">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId29">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>510540</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>167640</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1039" r:id="rId28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1040" r:id="rId30">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId31">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>716280</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>7620</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1040" r:id="rId30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1044" r:id="rId32">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId33">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>373380</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>7620</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1044" r:id="rId32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1045" r:id="rId34">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId35">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>365760</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Objekt-Manager-Shellobjekt" shapeId="1045" r:id="rId34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
--- a/EA_Rechnung.xlsx
+++ b/EA_Rechnung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Schule\CPE\2. Klasse\Projekt\RC-Car\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\CPE\2. Klasse\Projekt\RC-Car\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81586490-D4B2-4BD3-82AB-6801069A3334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BA0EA8-5288-4728-9635-238D90D9EF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{4145CA07-622A-467E-AEE4-EB2649939E77}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4145CA07-622A-467E-AEE4-EB2649939E77}"/>
   </bookViews>
   <sheets>
     <sheet name="EA_Rechnung_2021" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>Ea-Rechnung</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>Rückzahlung Arduino Nano</t>
+  </si>
+  <si>
+    <t>Rückerstattung</t>
   </si>
 </sst>
 </file>
@@ -469,7 +472,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>533400</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>175260</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -523,8 +526,8 @@
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>723900</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -578,8 +581,8 @@
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>952500</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -632,9 +635,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>556260</xdr:colOff>
+          <xdr:colOff>552450</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>175260</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -683,13 +686,13 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>182880</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>1775460</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>1905</xdr:rowOff>
+          <xdr:colOff>1771650</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -743,8 +746,8 @@
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>1905</xdr:rowOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -799,7 +802,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -852,9 +855,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>160020</xdr:rowOff>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -907,9 +910,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -962,9 +965,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>297180</xdr:colOff>
+          <xdr:colOff>295275</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>175260</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1017,9 +1020,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>167640</xdr:colOff>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1072,7 +1075,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>243840</xdr:colOff>
+          <xdr:colOff>247650</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1127,9 +1130,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>513646</xdr:colOff>
+          <xdr:colOff>514350</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>166688</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1139,7 +1142,7 @@
                   <a14:compatExt spid="_x0000_s1039"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E714B8C0-6EEA-4654-B8E4-93D53828C2B7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1160,23 +1163,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1195,9 +1185,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>717843</xdr:colOff>
+          <xdr:colOff>714375</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>4763</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1207,7 +1197,7 @@
                   <a14:compatExt spid="_x0000_s1040"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05761015-36A7-4603-9392-0AF75D01737D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1228,23 +1218,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1263,9 +1240,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>376238</xdr:colOff>
+          <xdr:colOff>371475</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>7144</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1275,7 +1252,7 @@
                   <a14:compatExt spid="_x0000_s1044"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{823972BE-1904-4F6F-8B1D-F08B2ADD345B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1296,23 +1273,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1332,8 +1296,8 @@
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>361950</xdr:colOff>
-          <xdr:row>33</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1343,7 +1307,7 @@
                   <a14:compatExt spid="_x0000_s1045"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5202CA5B-24DC-4BA0-B893-4FE1D5C2D693}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1364,23 +1328,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1690,23 +1641,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CB7E9A-8A99-4BA8-BB9E-BD49A733C663}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.44140625" style="1"/>
+    <col min="1" max="2" width="11.42578125" style="1"/>
     <col min="3" max="3" width="23" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="1"/>
-    <col min="6" max="6" width="12.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.88671875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.44140625" style="1"/>
+    <col min="4" max="4" width="26.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:7" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:7" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4"/>
       <c r="B2" s="21" t="s">
         <v>0</v>
@@ -1717,7 +1668,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
@@ -1726,7 +1677,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="24" t="s">
         <v>2</v>
@@ -1737,7 +1688,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
@@ -1746,7 +1697,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="7" t="s">
         <v>1</v>
@@ -1763,7 +1714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="10">
         <v>44627</v>
@@ -1780,7 +1731,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="4" t="s">
@@ -1796,7 +1747,7 @@
       <c r="F8" s="14"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="16" t="s">
@@ -1811,7 +1762,7 @@
       <c r="F9" s="14"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="10">
         <v>44663</v>
@@ -1828,9 +1779,11 @@
       <c r="F10" s="14"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
+      <c r="B11" s="10">
+        <v>44677</v>
+      </c>
       <c r="C11" s="16" t="s">
         <v>31</v>
       </c>
@@ -1843,7 +1796,7 @@
       <c r="F11" s="14"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="4"/>
@@ -1852,7 +1805,7 @@
       <c r="F12" s="14"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="4"/>
@@ -1861,7 +1814,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="4"/>
@@ -1875,7 +1828,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="4"/>
@@ -1884,7 +1837,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="24" t="s">
         <v>4</v>
@@ -1895,7 +1848,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="4"/>
@@ -1904,7 +1857,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="7" t="s">
         <v>1</v>
@@ -1925,7 +1878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="10">
         <v>44427</v>
@@ -1944,7 +1897,7 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="10">
         <v>44452</v>
@@ -1963,7 +1916,7 @@
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="10">
         <v>44424</v>
@@ -1982,7 +1935,7 @@
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="10">
         <v>44424</v>
@@ -2001,7 +1954,7 @@
       </c>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="10">
         <v>44424</v>
@@ -2020,7 +1973,7 @@
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="10">
         <v>44203</v>
@@ -2039,7 +1992,7 @@
       </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="10">
         <v>44628</v>
@@ -2058,7 +2011,7 @@
       </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="10">
         <v>44655</v>
@@ -2077,7 +2030,7 @@
       </c>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="10">
         <v>44655</v>
@@ -2096,7 +2049,7 @@
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="10">
         <v>44655</v>
@@ -2115,7 +2068,7 @@
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="10">
         <v>44672</v>
@@ -2132,7 +2085,7 @@
       <c r="F29" s="14"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="10">
         <v>44670</v>
@@ -2149,7 +2102,7 @@
       <c r="F30" s="14"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="10">
         <v>44670</v>
@@ -2166,7 +2119,7 @@
       <c r="F31" s="14"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="10">
         <v>44670</v>
@@ -2183,7 +2136,7 @@
       <c r="F32" s="14"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="10">
         <v>44670</v>
@@ -2200,16 +2153,24 @@
       <c r="F33" s="14"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="14"/>
+      <c r="B34" s="10">
+        <v>44673</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="14">
+        <v>-11.89</v>
+      </c>
       <c r="F34" s="14"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="4"/>
@@ -2218,7 +2179,7 @@
       <c r="F35" s="14"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="4"/>
@@ -2227,7 +2188,7 @@
       <c r="F36" s="14"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="4"/>
@@ -2236,7 +2197,7 @@
       <c r="F37" s="18"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="4"/>
@@ -2245,7 +2206,7 @@
       </c>
       <c r="E38" s="15">
         <f>SUM(E19:E37)</f>
-        <v>465.23</v>
+        <v>453.34000000000003</v>
       </c>
       <c r="F38" s="19">
         <f>SUM(F19:F37)</f>
@@ -2253,7 +2214,7 @@
       </c>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="4"/>
@@ -2262,7 +2223,7 @@
       <c r="F39" s="14"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="26" t="s">
@@ -2271,12 +2232,12 @@
       <c r="D40" s="27"/>
       <c r="E40" s="15">
         <f>E14-E38</f>
-        <v>1188.19</v>
+        <v>1200.08</v>
       </c>
       <c r="F40" s="17"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="11"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
@@ -2284,7 +2245,7 @@
       <c r="F41" s="12"/>
       <c r="G41" s="13"/>
     </row>
-    <row r="42" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:G2"/>
@@ -2312,7 +2273,7 @@
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>533400</xdr:colOff>
                 <xdr:row>18</xdr:row>
-                <xdr:rowOff>175260</xdr:rowOff>
+                <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -2385,9 +2346,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>556260</xdr:colOff>
+                <xdr:colOff>552450</xdr:colOff>
                 <xdr:row>22</xdr:row>
-                <xdr:rowOff>175260</xdr:rowOff>
+                <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -2406,13 +2367,13 @@
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>22</xdr:row>
-                <xdr:rowOff>182880</xdr:rowOff>
+                <xdr:rowOff>180975</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>1775460</xdr:colOff>
+                <xdr:colOff>1771650</xdr:colOff>
                 <xdr:row>23</xdr:row>
-                <xdr:rowOff>182880</xdr:rowOff>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -2437,7 +2398,7 @@
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>457200</xdr:colOff>
                 <xdr:row>24</xdr:row>
-                <xdr:rowOff>182880</xdr:rowOff>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -2462,7 +2423,7 @@
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>26</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -2485,9 +2446,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>289560</xdr:colOff>
+                <xdr:colOff>285750</xdr:colOff>
                 <xdr:row>26</xdr:row>
-                <xdr:rowOff>160020</xdr:rowOff>
+                <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -2510,9 +2471,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>289560</xdr:colOff>
+                <xdr:colOff>285750</xdr:colOff>
                 <xdr:row>27</xdr:row>
-                <xdr:rowOff>167640</xdr:rowOff>
+                <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -2535,9 +2496,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>297180</xdr:colOff>
+                <xdr:colOff>295275</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>175260</xdr:rowOff>
+                <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -2560,9 +2521,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>167640</xdr:colOff>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>9</xdr:row>
-                <xdr:rowOff>167640</xdr:rowOff>
+                <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -2585,7 +2546,7 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>243840</xdr:colOff>
+                <xdr:colOff>247650</xdr:colOff>
                 <xdr:row>11</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -2610,9 +2571,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>510540</xdr:colOff>
+                <xdr:colOff>514350</xdr:colOff>
                 <xdr:row>28</xdr:row>
-                <xdr:rowOff>167640</xdr:rowOff>
+                <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -2635,9 +2596,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>716280</xdr:colOff>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>30</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -2660,9 +2621,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>373380</xdr:colOff>
+                <xdr:colOff>371475</xdr:colOff>
                 <xdr:row>32</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -2685,7 +2646,7 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>365760</xdr:colOff>
+                <xdr:colOff>361950</xdr:colOff>
                 <xdr:row>33</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
